--- a/Excel文件/xiakeqian/战斗属性.xlsx
+++ b/Excel文件/xiakeqian/战斗属性.xlsx
@@ -4423,21 +4423,12 @@
     <t>攻守兼备</t>
   </si>
   <si>
-    <t>自身生命值高于50%时暴击提高15%，生命值低于50%时减伤提高15%</t>
-  </si>
-  <si>
     <t>拳打八方</t>
   </si>
   <si>
-    <t>对敌方单位造成伤害时，敌方单位范围5格内每有额外一名敌方单位，本次造成的伤害提高50%，暴击时每有额外一名敌方单位，本次造成的伤害提高至80%，若被攻击的敌方单位反击，对范围内所有敌方单位造成本次伤害65%的伤害</t>
-  </si>
-  <si>
     <t>剑走游龙</t>
   </si>
   <si>
-    <t>每移动一个格子伤害提高8%（上限120%，计算本场战斗而非本回合）。每回合移动格子数大于等于3额外造成120%伤害，移动格子数大于等于5左右互搏，移动格子数大于等于8必定命中，3种效果可同时生效</t>
-  </si>
-  <si>
     <t>徐徐图之</t>
   </si>
   <si>
@@ -4531,12 +4522,6 @@
     <t>治疗效果提高20%，每次使用招式时，为生命值最低的1个友方单位额外恢复该招式所消耗内力值的120%的生命值</t>
   </si>
   <si>
-    <t>一剑霜寒</t>
-  </si>
-  <si>
-    <t>生命值低于80%/60%/40%/20%时分别获得伤害提高40%/必定暴击/必定命中/移动格数+1</t>
-  </si>
-  <si>
     <t>反击</t>
   </si>
   <si>
@@ -4552,9 +4537,6 @@
     <t>似燕如鹰</t>
   </si>
   <si>
-    <t>自身闪避提高15%，闪避后攻击力提高15%，持续2回合</t>
-  </si>
-  <si>
     <t>输出+反击</t>
   </si>
   <si>
@@ -4585,9 +4567,6 @@
     <t>硬桥硬马</t>
   </si>
   <si>
-    <t>自身攻击提高15%，受到伤害时减伤提高15%，持续1回合</t>
-  </si>
-  <si>
     <t>势如破竹</t>
   </si>
   <si>
@@ -4618,9 +4597,6 @@
     <t>收放自如</t>
   </si>
   <si>
-    <t>闪避提高15%，闪避后攻击提高15%，持续2回合</t>
-  </si>
-  <si>
     <t>输出 肉盾 控制</t>
   </si>
   <si>
@@ -4691,6 +4667,30 @@
   </si>
   <si>
     <t>以自身为中心，对范围6格内随机2名友方单位增加三种效果之一， 免疫中毒、免疫内伤、反伤提高30%，效果持续1回合</t>
+  </si>
+  <si>
+    <t>自身生命值每降低5%，受到的伤害降低2.5%，范围3格内每有一名友方单位，造成的伤害提高15%</t>
+  </si>
+  <si>
+    <t>对敌方单位造成伤害时，该敌方单位为中心的范围5格内每有额外一名敌方单位，本次造成的伤害提高50%，暴击时每有额外一名敌方单位，本次造成的伤害提高至80%，若被攻击的敌方单位反击，对范围内所有敌方单位造成本次伤害65%的伤害</t>
+  </si>
+  <si>
+    <t>每移动一个格子伤害提高10%（上限12次，计算本场战斗而非本回合），每累计1次上限，移动格子+1。每回合移动格子数大于等于2/4/6时，额外造成120%伤害/左右互搏/必定命中，3种效果可同时生效</t>
+  </si>
+  <si>
+    <t>一剑无血</t>
+  </si>
+  <si>
+    <t>攻击必定暴击，暴击时有25%无视敌方单位防御，若杀死敌方单位施法者获得续战，持续1回合</t>
+  </si>
+  <si>
+    <t>每回合第一次受到攻击时，必定闪避。自身每有2%闪避，攻击时造成伤害额外提升1%</t>
+  </si>
+  <si>
+    <t>自身生命值每降低1%，造成伤害提高0.5%，范围4格内每有一名敌方单位，施法者自身受到的伤害降低15%</t>
+  </si>
+  <si>
+    <t>每使用1次招式后，提升自身15%闪避，累计75%。攻击敌方单位时，闪避每比敌方单位多2%，造成的伤害额外提升1%</t>
   </si>
 </sst>
 </file>
@@ -4833,11 +4833,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4845,7 +4845,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -50873,8 +50873,8 @@
   <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="M17" sqref="M17"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50905,25 +50905,25 @@
       <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="22" t="s">
         <v>1412</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="22" t="s">
         <v>1413</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="22" t="s">
         <v>1414</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="22" t="s">
         <v>1415</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="22" t="s">
         <v>1414</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="22" t="s">
         <v>1415</v>
       </c>
       <c r="P1" s="20" t="s">
@@ -50955,13 +50955,13 @@
       <c r="H2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="15">
@@ -51004,7 +51004,7 @@
         <v>1419</v>
       </c>
       <c r="N3" s="25"/>
-      <c r="O3" s="22"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="15">
@@ -51047,7 +51047,7 @@
         <v>1423</v>
       </c>
       <c r="N4" s="25"/>
-      <c r="O4" s="22"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="15">
@@ -51090,7 +51090,7 @@
         <v>1427</v>
       </c>
       <c r="N5" s="25"/>
-      <c r="O5" s="22"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="15">
@@ -51160,23 +51160,23 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="26" t="s">
         <v>1431</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="27" t="s">
         <v>1432</v>
       </c>
-      <c r="M7" s="22" t="s">
-        <v>1433</v>
+      <c r="M7" s="26" t="s">
+        <v>1515</v>
       </c>
       <c r="N7" s="25"/>
-      <c r="O7" s="22"/>
+      <c r="O7" s="23"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="15">
@@ -51213,13 +51213,13 @@
         <v>1425</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>1435</v>
+        <v>1516</v>
       </c>
       <c r="N8" s="25"/>
-      <c r="O8" s="22"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="15">
@@ -51256,13 +51256,13 @@
         <v>1425</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>1437</v>
+        <v>1517</v>
       </c>
       <c r="N9" s="25"/>
-      <c r="O9" s="22"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="15">
@@ -51299,13 +51299,13 @@
         <v>1431</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="N10" s="25"/>
-      <c r="O10" s="22"/>
+      <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
@@ -51332,23 +51332,23 @@
       <c r="H11" s="2">
         <v>3</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="23" t="s">
         <v>1401</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="23" t="s">
         <v>1428</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>1440</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>1441</v>
+        <v>1437</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>1438</v>
       </c>
       <c r="N11" s="25"/>
-      <c r="O11" s="22"/>
+      <c r="O11" s="23"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
@@ -51385,13 +51385,13 @@
         <v>1425</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="N12" s="25"/>
-      <c r="O12" s="22"/>
+      <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
@@ -51418,23 +51418,23 @@
       <c r="H13" s="2">
         <v>3</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="23" t="s">
         <v>1404</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="23" t="s">
         <v>1428</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>1444</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>1445</v>
+        <v>1441</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>1442</v>
       </c>
       <c r="N13" s="25"/>
-      <c r="O13" s="22"/>
+      <c r="O13" s="23"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
@@ -51461,21 +51461,21 @@
       <c r="H14" s="2">
         <v>2</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="23" t="s">
         <v>1405</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="25" t="s">
-        <v>1446</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>1447</v>
+        <v>1443</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>1444</v>
       </c>
       <c r="N14" s="25"/>
-      <c r="O14" s="22"/>
+      <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
@@ -51506,19 +51506,19 @@
         <v>1400</v>
       </c>
       <c r="J15" s="26" t="s">
+        <v>1445</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>1446</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>1447</v>
+      </c>
+      <c r="M15" s="26" t="s">
         <v>1448</v>
       </c>
-      <c r="K15" s="26" t="s">
-        <v>1449</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>1450</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>1451</v>
-      </c>
       <c r="N15" s="25"/>
-      <c r="O15" s="22"/>
+      <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
@@ -51545,21 +51545,21 @@
       <c r="H16" s="2">
         <v>3</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="23" t="s">
         <v>1400</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="25" t="s">
         <v>1422</v>
       </c>
-      <c r="M16" s="22" t="s">
-        <v>1452</v>
+      <c r="M16" s="23" t="s">
+        <v>1449</v>
       </c>
       <c r="N16" s="25"/>
-      <c r="O16" s="22"/>
+      <c r="O16" s="23"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
@@ -51593,13 +51593,13 @@
         <v>1416</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -51632,16 +51632,16 @@
         <v>1399</v>
       </c>
       <c r="J18" s="26" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>1454</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>1455</v>
+      </c>
+      <c r="M18" s="26" t="s">
         <v>1456</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>1457</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>1458</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>1459</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -51677,13 +51677,13 @@
         <v>1416</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -51719,13 +51719,13 @@
         <v>1424</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -51758,16 +51758,16 @@
         <v>1399</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="N21" s="25"/>
     </row>
@@ -51796,20 +51796,20 @@
       <c r="H22" s="2">
         <v>4</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="24" t="s">
         <v>1402</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="24" t="s">
         <v>1420</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="24" t="s">
         <v>1425</v>
       </c>
       <c r="L22" s="28" t="s">
-        <v>1469</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>1470</v>
+        <v>1518</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>1519</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -51845,13 +51845,13 @@
         <v>1424</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -51880,20 +51880,20 @@
       <c r="H24" s="2">
         <v>4</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="K24" s="22" t="s">
-        <v>1474</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>1475</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>1476</v>
+      <c r="K24" s="26" t="s">
+        <v>1469</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>1470</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>1520</v>
       </c>
       <c r="N24" s="25"/>
     </row>
@@ -51922,20 +51922,20 @@
       <c r="H25" s="2">
         <v>3</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="23" t="s">
         <v>1401</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="K25" s="22" t="s">
-        <v>1477</v>
+      <c r="K25" s="23" t="s">
+        <v>1471</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>1478</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>1479</v>
+        <v>1472</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>1473</v>
       </c>
       <c r="N25" s="25"/>
     </row>
@@ -51964,18 +51964,18 @@
       <c r="H26" s="2">
         <v>3</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="23" t="s">
         <v>1402</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="K26" s="22"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="25" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>1481</v>
+        <v>1474</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>1475</v>
       </c>
       <c r="N26" s="25"/>
     </row>
@@ -52004,20 +52004,20 @@
       <c r="H27" s="2">
         <v>3</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="23" t="s">
         <v>1401</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="23" t="s">
         <v>1428</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>1482</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>1483</v>
+        <v>1476</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>1477</v>
       </c>
       <c r="N27" s="25"/>
     </row>
@@ -52053,13 +52053,13 @@
         <v>1424</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="N28" s="25"/>
     </row>
@@ -52088,20 +52088,20 @@
       <c r="H29" s="2">
         <v>3</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="26" t="s">
         <v>1400</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="26" t="s">
         <v>1431</v>
       </c>
-      <c r="L29" s="25" t="s">
-        <v>1486</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>1487</v>
+      <c r="L29" s="27" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>1521</v>
       </c>
       <c r="N29" s="25"/>
     </row>
@@ -52130,18 +52130,18 @@
       <c r="H30" s="2">
         <v>3</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="23" t="s">
         <v>1403</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="K30" s="22"/>
+      <c r="K30" s="23"/>
       <c r="L30" s="25" t="s">
-        <v>1488</v>
-      </c>
-      <c r="M30" s="22" t="s">
-        <v>1489</v>
+        <v>1481</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>1482</v>
       </c>
       <c r="N30" s="25"/>
     </row>
@@ -52174,16 +52174,16 @@
         <v>1403</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>1490</v>
+        <v>1483</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="N31" s="25"/>
     </row>
@@ -52212,20 +52212,20 @@
       <c r="H32" s="2">
         <v>3</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="23" t="s">
         <v>1401</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="K32" s="22" t="s">
-        <v>1477</v>
+      <c r="K32" s="23" t="s">
+        <v>1471</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>1493</v>
-      </c>
-      <c r="M32" s="22" t="s">
-        <v>1494</v>
+        <v>1486</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>1487</v>
       </c>
       <c r="N32" s="25"/>
     </row>
@@ -52261,16 +52261,16 @@
         <v>1424</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="M33" s="26" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
       <c r="N33" s="25"/>
-      <c r="O33" s="22"/>
+      <c r="O33" s="23"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="2">
@@ -52297,23 +52297,23 @@
       <c r="H34" s="2">
         <v>3</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J34" s="22" t="s">
+      <c r="J34" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="K34" s="22" t="s">
-        <v>1474</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>1497</v>
-      </c>
-      <c r="M34" s="22" t="s">
-        <v>1498</v>
+      <c r="K34" s="26" t="s">
+        <v>1469</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>1490</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>1522</v>
       </c>
       <c r="N34" s="25"/>
-      <c r="O34" s="22"/>
+      <c r="O34" s="23"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="2">
@@ -52340,26 +52340,26 @@
       <c r="H35" s="2">
         <v>4</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="23" t="s">
         <v>1400</v>
       </c>
-      <c r="J35" s="22" t="s">
-        <v>1499</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>1500</v>
+      <c r="J35" s="23" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>1492</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>1501</v>
-      </c>
-      <c r="M35" s="22" t="s">
-        <v>1502</v>
+        <v>1493</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>1494</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="P35" s="21" t="s">
         <v>1409</v>
@@ -52390,26 +52390,26 @@
       <c r="H36" s="2">
         <v>3</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="23" t="s">
         <v>1400</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="23" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>1497</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>1481</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>1498</v>
+      </c>
+      <c r="N36" s="25" t="s">
         <v>1499</v>
       </c>
-      <c r="K36" s="22" t="s">
-        <v>1505</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>1488</v>
-      </c>
-      <c r="M36" s="22" t="s">
-        <v>1506</v>
-      </c>
-      <c r="N36" s="25" t="s">
-        <v>1507</v>
-      </c>
       <c r="O36" s="26" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="P36" s="21" t="s">
         <v>1410</v>
@@ -52440,26 +52440,26 @@
       <c r="H37" s="2">
         <v>3</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="23" t="s">
         <v>1401</v>
       </c>
-      <c r="J37" s="22" t="s">
-        <v>1499</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>1509</v>
+      <c r="J37" s="23" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>1501</v>
       </c>
       <c r="L37" s="25" t="s">
-        <v>1510</v>
-      </c>
-      <c r="M37" s="22" t="s">
-        <v>1511</v>
+        <v>1502</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>1503</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="O37" s="26" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="P37" s="21" t="s">
         <v>1411</v>
@@ -52490,23 +52490,23 @@
       <c r="H38" s="2">
         <v>3</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="23" t="s">
         <v>1402</v>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="K38" s="22" t="s">
-        <v>1477</v>
+      <c r="K38" s="23" t="s">
+        <v>1471</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>1514</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>1515</v>
+        <v>1506</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>1507</v>
       </c>
       <c r="N38" s="25"/>
-      <c r="O38" s="22"/>
+      <c r="O38" s="23"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="2">
@@ -52540,16 +52540,16 @@
         <v>1424</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="L39" s="27" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="M39" s="26" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="N39" s="25"/>
-      <c r="O39" s="22"/>
+      <c r="O39" s="23"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="2">
@@ -52576,21 +52576,21 @@
       <c r="H40" s="2">
         <v>3</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="23" t="s">
         <v>1401</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="K40" s="22"/>
+      <c r="K40" s="23"/>
       <c r="L40" s="25" t="s">
-        <v>1518</v>
-      </c>
-      <c r="M40" s="22" t="s">
-        <v>1519</v>
+        <v>1510</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>1511</v>
       </c>
       <c r="N40" s="25"/>
-      <c r="O40" s="22"/>
+      <c r="O40" s="23"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="2">
@@ -52624,16 +52624,16 @@
         <v>1416</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="L41" s="27" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="N41" s="25"/>
-      <c r="O41" s="22"/>
+      <c r="O41" s="23"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="15">

--- a/Excel文件/xiakeqian/战斗属性.xlsx
+++ b/Excel文件/xiakeqian/战斗属性.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="1524">
   <si>
     <t>#編號</t>
   </si>
@@ -4691,6 +4691,9 @@
   </si>
   <si>
     <t>每使用1次招式后，提升自身15%闪避，累计75%。攻击敌方单位时，闪避每比敌方单位多2%，造成的伤害额外提升1%</t>
+  </si>
+  <si>
+    <t>箭器、拳掌</t>
   </si>
 </sst>
 </file>
@@ -50874,7 +50877,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="M20" sqref="M20"/>
+      <selection pane="topRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51880,8 +51883,8 @@
       <c r="H24" s="2">
         <v>4</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>1401</v>
+      <c r="I24" s="23" t="s">
+        <v>1523</v>
       </c>
       <c r="J24" s="26" t="s">
         <v>1420</v>
@@ -51923,7 +51926,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="J25" s="23" t="s">
         <v>1420</v>
@@ -52005,7 +52008,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>1401</v>
+        <v>1523</v>
       </c>
       <c r="J27" s="23" t="s">
         <v>1420</v>
@@ -52047,7 +52050,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="J28" s="26" t="s">
         <v>1424</v>
@@ -52131,7 +52134,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="J30" s="23" t="s">
         <v>1420</v>

--- a/Excel文件/xiakeqian/战斗属性.xlsx
+++ b/Excel文件/xiakeqian/战斗属性.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="1526">
   <si>
     <t>#編號</t>
   </si>
@@ -4381,9 +4381,6 @@
     <t>噬骨蚀心</t>
   </si>
   <si>
-    <t>以自身为中心，范围10格/5格内敌方单位分别受到，每回合施法者攻击力80%的伤害，每回合当前内力减少3%，当前内力值低于35%时额外受到自身最大生命值5%的伤害</t>
-  </si>
-  <si>
     <t>输出</t>
   </si>
   <si>
@@ -4414,9 +4411,6 @@
     <t>箭无虚发</t>
   </si>
   <si>
-    <t>招式范围+1，对敌方单位造成伤害时，减少敌方单位抗暴50%，持续1回合。若本次攻击被闪避，对敌方单位额外附加重伤（每回合受到施法者攻击力150%的伤害，）持续2回合，</t>
-  </si>
-  <si>
     <t>输出+肉盾</t>
   </si>
   <si>
@@ -4447,18 +4441,6 @@
     <t>移动格数-1，最大生命提高30%，每次受到伤害时恢复已损失生命值的30%+最大生命5%的生命值</t>
   </si>
   <si>
-    <t>鞭打快牛</t>
-  </si>
-  <si>
-    <t>自身暴击提高10%，对目标单位造成伤害后，目标单位每回合受到自身攻击力65%的额外伤害，持续2回合</t>
-  </si>
-  <si>
-    <t>步履蹒跚</t>
-  </si>
-  <si>
-    <t>自身攻击提高10%，对目标单位造成伤害后，目标单位移动格数-1，持续1回合</t>
-  </si>
-  <si>
     <t>奶妈</t>
   </si>
   <si>
@@ -4471,18 +4453,12 @@
     <t>在攻击或承受伤害时，治疗效果提高10%上限3次。每当累计3次时，以自身为中心，范围3/8格内友方目标单位，恢复自身最大生命15%/8%的生命值</t>
   </si>
   <si>
-    <t>暴击后提高自身攻击力25%，持续2回合</t>
-  </si>
-  <si>
     <t>攻击增益</t>
   </si>
   <si>
     <t>无能狂暴</t>
   </si>
   <si>
-    <t>对敌方单位造成伤害时，对自身5格内的一名随机友方单位附加狂暴，若本次攻击被闪避，对5格内的一名随机友方单位附加必中、狂暴，持续1回合</t>
-  </si>
-  <si>
     <t>控制</t>
   </si>
   <si>
@@ -4501,9 +4477,6 @@
     <t>花开两面</t>
   </si>
   <si>
-    <t>对恢复生命值的友方单位增加35%减伤，清除对方身上一个负向状态，随机恢复生命的友方单位中随机出2名，以该友方单位的自身为中心的5格内随机1名敌方单位无法移动，持续1回合</t>
-  </si>
-  <si>
     <t>肉盾+辅助</t>
   </si>
   <si>
@@ -4519,9 +4492,6 @@
     <t>枯木逢春</t>
   </si>
   <si>
-    <t>治疗效果提高20%，每次使用招式时，为生命值最低的1个友方单位额外恢复该招式所消耗内力值的120%的生命值</t>
-  </si>
-  <si>
     <t>反击</t>
   </si>
   <si>
@@ -4570,15 +4540,9 @@
     <t>势如破竹</t>
   </si>
   <si>
-    <t>暴击提高10%，攻击提高5%</t>
-  </si>
-  <si>
     <t>群控</t>
   </si>
   <si>
-    <t>当头棒喝</t>
-  </si>
-  <si>
     <t>对敌方单位暴击时，敌方目标范围6格内的随机3名敌方单位，随机被附加冰冻、定身、眩晕效果中的任意一种，持续1回合</t>
   </si>
   <si>
@@ -4591,9 +4555,6 @@
     <t>金实为开</t>
   </si>
   <si>
-    <t>受到伤害时提高反击10%、防御10%，上限5次，每当反击提高至上限，触发反击后恢复内力25%，扣除4次反击。并减少敌方单位防御（4次防御值*1.5），扣除4次防御</t>
-  </si>
-  <si>
     <t>收放自如</t>
   </si>
   <si>
@@ -4624,9 +4585,6 @@
     <t>舍己为公</t>
   </si>
   <si>
-    <t>提高最大生命、最大内力各1200点，当5格内1名友方单位受到攻击时，移动至该友方单位身旁承担本次伤害的40%，若本次伤害暴击，施法者恢复10%最大生命值，友方单位必定反击，施法者生命值低于30%时，无法触发</t>
-  </si>
-  <si>
     <t>暴击</t>
   </si>
   <si>
@@ -4642,24 +4600,12 @@
     <t>在攻击或承受伤害时，提高15%反击、15%减伤，累计上限5次，当累计5次时恢复生命值25%、内力值25%，霸体持续1回合，并重置累计次数</t>
   </si>
   <si>
-    <t>反戈一击</t>
-  </si>
-  <si>
-    <t>攻击提高15%，反击后提高反击15%，持续2回合</t>
-  </si>
-  <si>
     <t>以退为进</t>
   </si>
   <si>
     <t>每次反击额外造成敌方单位当前生命值2%的伤害，并吸收敌方单位5%的内力值，若反击没有命中敌方单位时，下次反击使用的招式内力消耗降低50%</t>
   </si>
   <si>
-    <t>刀光如电</t>
-  </si>
-  <si>
-    <t>暴击提高10%，暴击后命中提高15%，持续2回合</t>
-  </si>
-  <si>
     <t>防御增益</t>
   </si>
   <si>
@@ -4669,9 +4615,6 @@
     <t>以自身为中心，对范围6格内随机2名友方单位增加三种效果之一， 免疫中毒、免疫内伤、反伤提高30%，效果持续1回合</t>
   </si>
   <si>
-    <t>自身生命值每降低5%，受到的伤害降低2.5%，范围3格内每有一名友方单位，造成的伤害提高15%</t>
-  </si>
-  <si>
     <t>对敌方单位造成伤害时，该敌方单位为中心的范围5格内每有额外一名敌方单位，本次造成的伤害提高50%，暴击时每有额外一名敌方单位，本次造成的伤害提高至80%，若被攻击的敌方单位反击，对范围内所有敌方单位造成本次伤害65%的伤害</t>
   </si>
   <si>
@@ -4681,9 +4624,6 @@
     <t>一剑无血</t>
   </si>
   <si>
-    <t>攻击必定暴击，暴击时有25%无视敌方单位防御，若杀死敌方单位施法者获得续战，持续1回合</t>
-  </si>
-  <si>
     <t>每回合第一次受到攻击时，必定闪避。自身每有2%闪避，攻击时造成伤害额外提升1%</t>
   </si>
   <si>
@@ -4694,6 +4634,73 @@
   </si>
   <si>
     <t>箭器、拳掌</t>
+  </si>
+  <si>
+    <t>以自身为中心，范围10格/5格内敌方单位，每回合当前内力减少5%，并恢复友方单位减少内力值的200%生命值/内力值低于35%时额外受到自身最大生命值5%的伤害</t>
+  </si>
+  <si>
+    <t>招式范围+1，对敌方单位造成伤害时若被闪避，对敌方单位额外附加重伤、缚身持续1回合，</t>
+  </si>
+  <si>
+    <t>自身生命值每降低10%，造成伤害提高5%，上限40%。范围5格内每有一名友方单位，获得10%减伤</t>
+  </si>
+  <si>
+    <t>六百六十六节鞭</t>
+  </si>
+  <si>
+    <t>每次攻击时（左右互搏不计算）会获得一层六百六十六节鞭，4层时下一次攻击将消耗层数，造成敌方单位自身15%最大生命值的伤害，若杀死敌方单位，本场战斗中招式范围永久+1</t>
+  </si>
+  <si>
+    <t>致残打击</t>
+  </si>
+  <si>
+    <t>招式范围+1，攻击的敌方单位每距离施法者1格距离，本次造成伤害增加10%，暴击后附加断筋持续1回合</t>
+  </si>
+  <si>
+    <t>负负得正</t>
+  </si>
+  <si>
+    <t>自身每有一种负面状态，造成伤害提高10%，被攻击的敌方单位每有一种负面状态，提供给施法者10%的无视防御概率</t>
+  </si>
+  <si>
+    <t>使用招式后，对自身5格内的一名随机友方单位附加狂暴，若本次攻击被闪避，对5格内的一名随机友方单位额外附加必中持续1回合</t>
+  </si>
+  <si>
+    <t>对恢复生命值的友方单位增加25%减伤，清除对方身上一个负向状态，随机恢复生命的友方单位中随机出2名，以该友方单位的自身为中心的5格内随机1名敌方单位附加定身，持续1回合</t>
+  </si>
+  <si>
+    <t>治疗效果提高20%，每次使用招式时，为生命值最低的1个友方单位额外恢复该招式所消耗内力值的200%的生命值</t>
+  </si>
+  <si>
+    <t>攻击必定暴击，暴击时有25%无视敌方单位防御，若杀死敌方单位施法者获得续战，持续1回合
+攻击必定无视敌方单位防御，暴击后获得左右互搏，若杀死敌方单位施法者获得续战，持续1回合</t>
+  </si>
+  <si>
+    <t>一刀两断</t>
+  </si>
+  <si>
+    <t>所有攻击都会被视为背击</t>
+  </si>
+  <si>
+    <t>暗箭难防</t>
+  </si>
+  <si>
+    <t>受到伤害时提高反击10%、防御10%，上限3次，每当反击提高至上限，触发反击后恢复生命值25%、内力值25%，并减少敌方单位防御（4次防御值*1.5），并重置累计次数</t>
+  </si>
+  <si>
+    <t>提高最大生命、最大内力各1200点，当5格内1名友方单位受到攻击时，移动至该友方单位身旁承担本次伤害的40%，施法者恢复10%最大生命值，施法者生命值低于30%时，无法触发</t>
+  </si>
+  <si>
+    <t>殊死反击</t>
+  </si>
+  <si>
+    <t>生命值每降低10%，反击提高8%/反击伤害提高10%，每次反击命中时可恢复最大内力的5%</t>
+  </si>
+  <si>
+    <t>势大力沉</t>
+  </si>
+  <si>
+    <t>本回合未移动过，下回合造成伤害提高200%</t>
   </si>
 </sst>
 </file>
@@ -4809,7 +4816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4850,6 +4857,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -50877,7 +50887,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="M16" sqref="M16"/>
+      <selection pane="topRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51004,7 +51014,7 @@
         <v>1418</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>1419</v>
+        <v>1504</v>
       </c>
       <c r="N3" s="25"/>
       <c r="O3" s="23"/>
@@ -51038,16 +51048,16 @@
         <v>1400</v>
       </c>
       <c r="J4" s="26" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="L4" s="27" t="s">
         <v>1421</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="M4" s="26" t="s">
         <v>1422</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>1423</v>
       </c>
       <c r="N4" s="25"/>
       <c r="O4" s="23"/>
@@ -51081,16 +51091,16 @@
         <v>1401</v>
       </c>
       <c r="J5" s="26" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>1424</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="L5" s="27" t="s">
         <v>1425</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>1426</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>1427</v>
       </c>
       <c r="N5" s="25"/>
       <c r="O5" s="23"/>
@@ -51124,16 +51134,16 @@
         <v>1399</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K6" s="26" t="s">
+        <v>1427</v>
+      </c>
+      <c r="L6" s="27" t="s">
         <v>1428</v>
       </c>
-      <c r="L6" s="27" t="s">
-        <v>1429</v>
-      </c>
       <c r="M6" s="26" t="s">
-        <v>1430</v>
+        <v>1505</v>
       </c>
       <c r="N6" s="25"/>
       <c r="O6" s="26"/>
@@ -51167,16 +51177,16 @@
         <v>1402</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="N7" s="25"/>
       <c r="O7" s="23"/>
@@ -51210,16 +51220,16 @@
         <v>1400</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>1516</v>
+        <v>1497</v>
       </c>
       <c r="N8" s="25"/>
       <c r="O8" s="23"/>
@@ -51253,16 +51263,16 @@
         <v>1402</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>1517</v>
+        <v>1498</v>
       </c>
       <c r="N9" s="25"/>
       <c r="O9" s="23"/>
@@ -51296,16 +51306,16 @@
         <v>1401</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="N10" s="25"/>
       <c r="O10" s="23"/>
@@ -51339,16 +51349,16 @@
         <v>1401</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="N11" s="25"/>
       <c r="O11" s="23"/>
@@ -51382,16 +51392,16 @@
         <v>1403</v>
       </c>
       <c r="J12" s="26" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K12" s="26" t="s">
         <v>1424</v>
       </c>
-      <c r="K12" s="26" t="s">
-        <v>1425</v>
-      </c>
       <c r="L12" s="27" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="N12" s="25"/>
       <c r="O12" s="23"/>
@@ -51421,20 +51431,20 @@
       <c r="H13" s="2">
         <v>3</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="26" t="s">
         <v>1404</v>
       </c>
-      <c r="J13" s="23" t="s">
-        <v>1420</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>1428</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>1441</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>1442</v>
+      <c r="J13" s="26" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>1424</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>1507</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>1508</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="23"/>
@@ -51464,18 +51474,20 @@
       <c r="H14" s="2">
         <v>2</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="26" t="s">
         <v>1405</v>
       </c>
-      <c r="J14" s="23" t="s">
-        <v>1420</v>
-      </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="25" t="s">
-        <v>1443</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>1444</v>
+      <c r="J14" s="26" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>1427</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>1509</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>1510</v>
       </c>
       <c r="N14" s="25"/>
       <c r="O14" s="23"/>
@@ -51509,16 +51521,16 @@
         <v>1400</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="23"/>
@@ -51548,18 +51560,20 @@
       <c r="H16" s="2">
         <v>3</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="26" t="s">
         <v>1400</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="26" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K16" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="25" t="s">
-        <v>1422</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>1449</v>
+      <c r="L16" s="27" t="s">
+        <v>1511</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>1512</v>
       </c>
       <c r="N16" s="25"/>
       <c r="O16" s="23"/>
@@ -51596,13 +51610,13 @@
         <v>1416</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>1452</v>
+        <v>1513</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -51635,16 +51649,16 @@
         <v>1399</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -51680,13 +51694,13 @@
         <v>1416</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>1459</v>
+        <v>1514</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -51719,16 +51733,16 @@
         <v>1405</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -51761,20 +51775,20 @@
         <v>1399</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>1465</v>
+        <v>1515</v>
       </c>
       <c r="N21" s="25"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" ht="27">
       <c r="A22" s="2">
         <v>800092</v>
       </c>
@@ -51803,16 +51817,16 @@
         <v>1402</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="L22" s="28" t="s">
-        <v>1518</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>1519</v>
+        <v>1499</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>1516</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -51845,16 +51859,16 @@
         <v>1401</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -51883,20 +51897,20 @@
       <c r="H24" s="2">
         <v>4</v>
       </c>
-      <c r="I24" s="23" t="s">
-        <v>1523</v>
+      <c r="I24" s="26" t="s">
+        <v>1503</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>1520</v>
+        <v>1500</v>
       </c>
       <c r="N24" s="25"/>
     </row>
@@ -51929,16 +51943,16 @@
         <v>1402</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="N25" s="25"/>
     </row>
@@ -51971,14 +51985,14 @@
         <v>1402</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K26" s="23"/>
       <c r="L26" s="25" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="N26" s="25"/>
     </row>
@@ -52008,19 +52022,19 @@
         <v>3</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>1523</v>
+        <v>1503</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="N27" s="25"/>
     </row>
@@ -52053,16 +52067,16 @@
         <v>1403</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="N28" s="25"/>
     </row>
@@ -52095,16 +52109,16 @@
         <v>1400</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>1521</v>
+        <v>1501</v>
       </c>
       <c r="N29" s="25"/>
     </row>
@@ -52133,18 +52147,20 @@
       <c r="H30" s="2">
         <v>3</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="26" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K30" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="25" t="s">
-        <v>1481</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>1482</v>
+      <c r="L30" s="26" t="s">
+        <v>1517</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>1518</v>
       </c>
       <c r="N30" s="25"/>
     </row>
@@ -52174,19 +52190,19 @@
         <v>3</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>1483</v>
+        <v>1472</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>1484</v>
+        <v>1519</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
       <c r="N31" s="25"/>
     </row>
@@ -52219,16 +52235,16 @@
         <v>1401</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="N32" s="25"/>
     </row>
@@ -52261,16 +52277,16 @@
         <v>1400</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="M33" s="26" t="s">
-        <v>1489</v>
+        <v>1520</v>
       </c>
       <c r="N33" s="25"/>
       <c r="O33" s="23"/>
@@ -52304,16 +52320,16 @@
         <v>1402</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>1490</v>
+        <v>1477</v>
       </c>
       <c r="M34" s="26" t="s">
-        <v>1522</v>
+        <v>1502</v>
       </c>
       <c r="N34" s="25"/>
       <c r="O34" s="23"/>
@@ -52347,22 +52363,22 @@
         <v>1400</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>1492</v>
+        <v>1479</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>1494</v>
+        <v>1481</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="P35" s="21" t="s">
         <v>1409</v>
@@ -52397,22 +52413,22 @@
         <v>1400</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
       <c r="N36" s="25" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
       <c r="O36" s="26" t="s">
-        <v>1500</v>
+        <v>1521</v>
       </c>
       <c r="P36" s="21" t="s">
         <v>1410</v>
@@ -52447,22 +52463,22 @@
         <v>1401</v>
       </c>
       <c r="J37" s="23" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>1487</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>1488</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>1490</v>
+      </c>
+      <c r="O37" s="26" t="s">
         <v>1491</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>1501</v>
-      </c>
-      <c r="L37" s="25" t="s">
-        <v>1502</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>1503</v>
-      </c>
-      <c r="N37" s="25" t="s">
-        <v>1504</v>
-      </c>
-      <c r="O37" s="26" t="s">
-        <v>1505</v>
       </c>
       <c r="P37" s="21" t="s">
         <v>1411</v>
@@ -52493,20 +52509,20 @@
       <c r="H38" s="2">
         <v>3</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J38" s="23" t="s">
-        <v>1420</v>
-      </c>
-      <c r="K38" s="23" t="s">
-        <v>1471</v>
-      </c>
-      <c r="L38" s="25" t="s">
-        <v>1506</v>
-      </c>
-      <c r="M38" s="23" t="s">
-        <v>1507</v>
+      <c r="J38" s="26" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>1523</v>
       </c>
       <c r="N38" s="25"/>
       <c r="O38" s="23"/>
@@ -52540,16 +52556,16 @@
         <v>1402</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="L39" s="27" t="s">
-        <v>1508</v>
+        <v>1492</v>
       </c>
       <c r="M39" s="26" t="s">
-        <v>1509</v>
+        <v>1493</v>
       </c>
       <c r="N39" s="25"/>
       <c r="O39" s="23"/>
@@ -52579,18 +52595,20 @@
       <c r="H40" s="2">
         <v>3</v>
       </c>
-      <c r="I40" s="23" t="s">
+      <c r="I40" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="26" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K40" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="K40" s="23"/>
-      <c r="L40" s="25" t="s">
-        <v>1510</v>
-      </c>
-      <c r="M40" s="23" t="s">
-        <v>1511</v>
+      <c r="L40" s="27" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>1525</v>
       </c>
       <c r="N40" s="25"/>
       <c r="O40" s="23"/>
@@ -52627,13 +52645,13 @@
         <v>1416</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>1512</v>
+        <v>1494</v>
       </c>
       <c r="L41" s="27" t="s">
-        <v>1513</v>
+        <v>1495</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>1514</v>
+        <v>1496</v>
       </c>
       <c r="N41" s="25"/>
       <c r="O41" s="23"/>

--- a/Excel文件/xiakeqian/战斗属性.xlsx
+++ b/Excel文件/xiakeqian/战斗属性.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3981" uniqueCount="1526">
   <si>
     <t>#編號</t>
   </si>
@@ -4429,12 +4429,6 @@
     <t>对敌方单位造成暴击时总伤害提高25%，受到伤害时伤害降低25%，每拥有一个刀法招式后，造成的总伤害额外提高10%，伤害降低额外提高10%</t>
   </si>
   <si>
-    <t>信念打击</t>
-  </si>
-  <si>
-    <t>攻击提高10%，对目标单位造成伤害后，减少目标单位暴击15%，持续1回合</t>
-  </si>
-  <si>
     <t>金刚护体</t>
   </si>
   <si>
@@ -4498,9 +4492,6 @@
     <t>回击退守</t>
   </si>
   <si>
-    <t>自身周围5格内，每有一名敌方单位反击提高15%，施法者使用反击招式将敌方单位生命值每降低20%，便可恢复施法者15%内力值。若反击招式累计降低敌方单位50%生命值，对其附加内伤效果持续1回合</t>
-  </si>
-  <si>
     <t>输出+闪避</t>
   </si>
   <si>
@@ -4513,27 +4504,15 @@
     <t>奋起反击</t>
   </si>
   <si>
-    <t>自身反击提高15%，反击后攻击力提高15%，持续2回合</t>
-  </si>
-  <si>
     <t>剑出如霆</t>
   </si>
   <si>
-    <t>自身暴击提高15%，暴击后攻击力提高15%，持续2回合</t>
-  </si>
-  <si>
     <t>沉重打击</t>
   </si>
   <si>
-    <t>自身攻击提高15%，对目标单位造成伤害时，目标单位受到伤害提高15%，持续2回合</t>
-  </si>
-  <si>
     <t>金刚怒目</t>
   </si>
   <si>
-    <t>每次反击命中敌方单位时恢复已损失内力值的25%，若反击没有命中敌方单位，下次反击必定命中，并额外造成目标已损失内力值50%的额外伤害</t>
-  </si>
-  <si>
     <t>硬桥硬马</t>
   </si>
   <si>
@@ -4546,12 +4525,6 @@
     <t>对敌方单位暴击时，敌方目标范围6格内的随机3名敌方单位，随机被附加冰冻、定身、眩晕效果中的任意一种，持续1回合</t>
   </si>
   <si>
-    <t>暴起反击</t>
-  </si>
-  <si>
-    <t>反击提高15%，反击后暴击提高10%，持续2回合</t>
-  </si>
-  <si>
     <t>金实为开</t>
   </si>
   <si>
@@ -4573,9 +4546,6 @@
     <t>阴阳调和</t>
   </si>
   <si>
-    <t>增加自身最大内力35%的额外最大生命，每1000点生命值提高10%减伤，每10%减伤额外每回合恢复2%内力</t>
-  </si>
-  <si>
     <t>分担</t>
   </si>
   <si>
@@ -4603,9 +4573,6 @@
     <t>以退为进</t>
   </si>
   <si>
-    <t>每次反击额外造成敌方单位当前生命值2%的伤害，并吸收敌方单位5%的内力值，若反击没有命中敌方单位时，下次反击使用的招式内力消耗降低50%</t>
-  </si>
-  <si>
     <t>防御增益</t>
   </si>
   <si>
@@ -4624,15 +4591,6 @@
     <t>一剑无血</t>
   </si>
   <si>
-    <t>每回合第一次受到攻击时，必定闪避。自身每有2%闪避，攻击时造成伤害额外提升1%</t>
-  </si>
-  <si>
-    <t>自身生命值每降低1%，造成伤害提高0.5%，范围4格内每有一名敌方单位，施法者自身受到的伤害降低15%</t>
-  </si>
-  <si>
-    <t>每使用1次招式后，提升自身15%闪避，累计75%。攻击敌方单位时，闪避每比敌方单位多2%，造成的伤害额外提升1%</t>
-  </si>
-  <si>
     <t>箭器、拳掌</t>
   </si>
   <si>
@@ -4660,47 +4618,88 @@
     <t>负负得正</t>
   </si>
   <si>
-    <t>自身每有一种负面状态，造成伤害提高10%，被攻击的敌方单位每有一种负面状态，提供给施法者10%的无视防御概率</t>
-  </si>
-  <si>
-    <t>使用招式后，对自身5格内的一名随机友方单位附加狂暴，若本次攻击被闪避，对5格内的一名随机友方单位额外附加必中持续1回合</t>
-  </si>
-  <si>
     <t>对恢复生命值的友方单位增加25%减伤，清除对方身上一个负向状态，随机恢复生命的友方单位中随机出2名，以该友方单位的自身为中心的5格内随机1名敌方单位附加定身，持续1回合</t>
   </si>
   <si>
     <t>治疗效果提高20%，每次使用招式时，为生命值最低的1个友方单位额外恢复该招式所消耗内力值的200%的生命值</t>
   </si>
   <si>
-    <t>攻击必定暴击，暴击时有25%无视敌方单位防御，若杀死敌方单位施法者获得续战，持续1回合
-攻击必定无视敌方单位防御，暴击后获得左右互搏，若杀死敌方单位施法者获得续战，持续1回合</t>
-  </si>
-  <si>
-    <t>一刀两断</t>
-  </si>
-  <si>
     <t>所有攻击都会被视为背击</t>
   </si>
   <si>
     <t>暗箭难防</t>
   </si>
   <si>
-    <t>受到伤害时提高反击10%、防御10%，上限3次，每当反击提高至上限，触发反击后恢复生命值25%、内力值25%，并减少敌方单位防御（4次防御值*1.5），并重置累计次数</t>
-  </si>
-  <si>
     <t>提高最大生命、最大内力各1200点，当5格内1名友方单位受到攻击时，移动至该友方单位身旁承担本次伤害的40%，施法者恢复10%最大生命值，施法者生命值低于30%时，无法触发</t>
   </si>
   <si>
     <t>殊死反击</t>
   </si>
   <si>
-    <t>生命值每降低10%，反击提高8%/反击伤害提高10%，每次反击命中时可恢复最大内力的5%</t>
-  </si>
-  <si>
     <t>势大力沉</t>
   </si>
   <si>
-    <t>本回合未移动过，下回合造成伤害提高200%</t>
+    <t>越打越年轻</t>
+  </si>
+  <si>
+    <t>每个回合内，连续（左右互搏不计算）对同一个敌方单位造成伤害时，当前攻击会附加上次攻击造成总伤害的80%，并附加破甲，破甲可叠加，持续1回合</t>
+  </si>
+  <si>
+    <t>自身每有一种负面状态，造成伤害提高10%，被攻击的敌方单位每有一种负面状态，受到伤害时被暴击的概率提高10%</t>
+  </si>
+  <si>
+    <t>每次攻击后，对自身5格内的一名随机友方单位附加狂暴，若本次攻击被闪避，对5格内的一名随机友方单位额外附加必中持续1回合</t>
+  </si>
+  <si>
+    <t>攻击必定无视敌方单位防御，暴击后获得左右互搏，若杀死敌方单位施法者获得续战，持续1回合</t>
+  </si>
+  <si>
+    <t>自身周围5格内，每有一名敌方单位反击提高15%，施法者使用反击招式将敌方单位生命值每降低20%，便可恢复施法者15%内力值</t>
+  </si>
+  <si>
+    <t>每回合第一次受到攻击时，必定闪避。自身每有1%闪避，攻击时造成伤害额外提升2%</t>
+  </si>
+  <si>
+    <t>反击招式伤害提高20%，反击后归元，持续1回合。反击招式暴击后，非反击招式伤害提高25%，持续1回合</t>
+  </si>
+  <si>
+    <t>暴击后下次攻击伤害提高50%，若下次伤害依然暴击，则造成伤害提高150%</t>
+  </si>
+  <si>
+    <t>暴击时对敌方单位额外造成单位自身最大生命值2%的伤害，并对敌方单位附加消沉，持续1回合</t>
+  </si>
+  <si>
+    <t>每次反击命中敌方单位时恢复已损失内力值的25%，若反击没有命中敌方单位，下次反击必定命中</t>
+  </si>
+  <si>
+    <t>自身生命值每降低1%，减伤提高0.5%，自身范围5格内每有一名敌方单位，施法者造成的伤害提高15%</t>
+  </si>
+  <si>
+    <t>霹雳狂刀</t>
+  </si>
+  <si>
+    <t>每累计消耗200内力值，暴击提高5%，暴击后额外造成施法者自身已损失内力值100%的额外伤害</t>
+  </si>
+  <si>
+    <t>花の人斩</t>
+  </si>
+  <si>
+    <t>受到伤害时提高反击10%、防御10%，上限3次，每当反击提高至上限，触发反击后恢复生命值25%、内力值25%，并减少敌方单位防御（3次防御值*1.5），并重置累计次数</t>
+  </si>
+  <si>
+    <t>每使用1次招式后，提高自身15%闪避，累计60%。攻击敌方单位时，闪避每比敌方单位多2%，造成的伤害额外提升1%</t>
+  </si>
+  <si>
+    <t>增加自身最大内力35%的额外最大生命，每1000点生命值提高10%减伤/每回合恢复的内力额外提高2%</t>
+  </si>
+  <si>
+    <t>生命值每降低10%，反击提高8%/反击伤害提高10%，每次反击命中时可恢复最大内力的10%</t>
+  </si>
+  <si>
+    <t>每次反击额外造成敌方单位当前生命值2%的伤害，并吸收敌方单位5%的当前内力值，若反击没有命中敌方单位时，下次反击使用的招式内力消耗降低60%</t>
+  </si>
+  <si>
+    <t>每有一个回合未进行移动，下个回合攻击造成的伤害提高100%，最多累计2回合</t>
   </si>
 </sst>
 </file>
@@ -4816,7 +4815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4858,8 +4857,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -50887,7 +50889,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="M13" sqref="M13"/>
+      <selection pane="topRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51014,7 +51016,7 @@
         <v>1418</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>1504</v>
+        <v>1490</v>
       </c>
       <c r="N3" s="25"/>
       <c r="O3" s="23"/>
@@ -51143,10 +51145,10 @@
         <v>1428</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>1505</v>
+        <v>1491</v>
       </c>
       <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
+      <c r="O6" s="23"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15">
@@ -51186,7 +51188,7 @@
         <v>1430</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>1506</v>
+        <v>1492</v>
       </c>
       <c r="N7" s="25"/>
       <c r="O7" s="23"/>
@@ -51229,7 +51231,7 @@
         <v>1431</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="N8" s="25"/>
       <c r="O8" s="23"/>
@@ -51272,7 +51274,7 @@
         <v>1432</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>1498</v>
+        <v>1487</v>
       </c>
       <c r="N9" s="25"/>
       <c r="O9" s="23"/>
@@ -51345,20 +51347,20 @@
       <c r="H11" s="2">
         <v>3</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="26" t="s">
         <v>1427</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>1435</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>1436</v>
+      <c r="L11" s="27" t="s">
+        <v>1505</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>1506</v>
       </c>
       <c r="N11" s="25"/>
       <c r="O11" s="23"/>
@@ -51398,10 +51400,10 @@
         <v>1424</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="N12" s="25"/>
       <c r="O12" s="23"/>
@@ -51441,10 +51443,10 @@
         <v>1424</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>1508</v>
+        <v>1494</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="23"/>
@@ -51484,10 +51486,10 @@
         <v>1427</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>1509</v>
+        <v>1495</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>1510</v>
+        <v>1496</v>
       </c>
       <c r="N14" s="25"/>
       <c r="O14" s="23"/>
@@ -51521,16 +51523,16 @@
         <v>1400</v>
       </c>
       <c r="J15" s="26" t="s">
+        <v>1437</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L15" s="27" t="s">
         <v>1439</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="M15" s="26" t="s">
         <v>1440</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>1441</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>1442</v>
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="23"/>
@@ -51570,10 +51572,10 @@
         <v>1420</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>1511</v>
+        <v>1497</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="N16" s="25"/>
       <c r="O16" s="23"/>
@@ -51610,13 +51612,13 @@
         <v>1416</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="N17" s="25"/>
     </row>
@@ -51649,16 +51651,16 @@
         <v>1399</v>
       </c>
       <c r="J18" s="26" t="s">
+        <v>1443</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>1444</v>
+      </c>
+      <c r="L18" s="27" t="s">
         <v>1445</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="M18" s="26" t="s">
         <v>1446</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>1447</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>1448</v>
       </c>
       <c r="N18" s="25"/>
     </row>
@@ -51694,13 +51696,13 @@
         <v>1416</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>1514</v>
+        <v>1498</v>
       </c>
       <c r="N19" s="25"/>
     </row>
@@ -51736,13 +51738,13 @@
         <v>1423</v>
       </c>
       <c r="K20" s="26" t="s">
+        <v>1449</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M20" s="26" t="s">
         <v>1451</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>1452</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>1453</v>
       </c>
       <c r="N20" s="25"/>
     </row>
@@ -51775,20 +51777,20 @@
         <v>1399</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>1515</v>
+        <v>1499</v>
       </c>
       <c r="N21" s="25"/>
     </row>
-    <row r="22" spans="1:14" ht="27">
+    <row r="22" spans="1:14">
       <c r="A22" s="2">
         <v>800092</v>
       </c>
@@ -51813,20 +51815,20 @@
       <c r="H22" s="2">
         <v>4</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="26" t="s">
         <v>1424</v>
       </c>
-      <c r="L22" s="28" t="s">
-        <v>1499</v>
+      <c r="L22" s="27" t="s">
+        <v>1488</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="N22" s="25"/>
     </row>
@@ -51862,13 +51864,13 @@
         <v>1423</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>1458</v>
+        <v>1510</v>
       </c>
       <c r="N23" s="25"/>
     </row>
@@ -51898,19 +51900,19 @@
         <v>4</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>1503</v>
+        <v>1489</v>
       </c>
       <c r="J24" s="26" t="s">
         <v>1419</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>1500</v>
+        <v>1511</v>
       </c>
       <c r="N24" s="25"/>
     </row>
@@ -51939,20 +51941,20 @@
       <c r="H25" s="2">
         <v>3</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K25" s="23" t="s">
-        <v>1461</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>1462</v>
-      </c>
-      <c r="M25" s="23" t="s">
-        <v>1463</v>
+      <c r="K25" s="26" t="s">
+        <v>1458</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>1459</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>1512</v>
       </c>
       <c r="N25" s="25"/>
     </row>
@@ -51981,18 +51983,20 @@
       <c r="H26" s="2">
         <v>3</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K26" s="23"/>
-      <c r="L26" s="25" t="s">
-        <v>1464</v>
-      </c>
-      <c r="M26" s="23" t="s">
-        <v>1465</v>
+      <c r="K26" s="26" t="s">
+        <v>1420</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>1513</v>
       </c>
       <c r="N26" s="25"/>
     </row>
@@ -52021,20 +52025,20 @@
       <c r="H27" s="2">
         <v>3</v>
       </c>
-      <c r="I27" s="23" t="s">
-        <v>1503</v>
-      </c>
-      <c r="J27" s="23" t="s">
+      <c r="I27" s="26" t="s">
+        <v>1489</v>
+      </c>
+      <c r="J27" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="26" t="s">
         <v>1427</v>
       </c>
-      <c r="L27" s="25" t="s">
-        <v>1466</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>1467</v>
+      <c r="L27" s="27" t="s">
+        <v>1461</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>1514</v>
       </c>
       <c r="N27" s="25"/>
     </row>
@@ -52070,13 +52074,13 @@
         <v>1423</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>1469</v>
+        <v>1515</v>
       </c>
       <c r="N28" s="25"/>
     </row>
@@ -52115,10 +52119,10 @@
         <v>1429</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>1470</v>
-      </c>
-      <c r="M29" s="26" t="s">
-        <v>1501</v>
+        <v>1463</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>1516</v>
       </c>
       <c r="N29" s="25"/>
     </row>
@@ -52154,9 +52158,9 @@
         <v>1419</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>1420</v>
-      </c>
-      <c r="L30" s="26" t="s">
+        <v>1424</v>
+      </c>
+      <c r="L30" s="30" t="s">
         <v>1517</v>
       </c>
       <c r="M30" s="26" t="s">
@@ -52193,16 +52197,16 @@
         <v>1399</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>1519</v>
+        <v>1501</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="N31" s="25"/>
     </row>
@@ -52231,20 +52235,20 @@
       <c r="H32" s="2">
         <v>3</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K32" s="23" t="s">
-        <v>1461</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>1474</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>1475</v>
+      <c r="K32" s="26" t="s">
+        <v>1420</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>1500</v>
       </c>
       <c r="N32" s="25"/>
     </row>
@@ -52280,10 +52284,10 @@
         <v>1423</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="M33" s="26" t="s">
         <v>1520</v>
@@ -52323,13 +52327,13 @@
         <v>1419</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="M34" s="26" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="N34" s="25"/>
       <c r="O34" s="23"/>
@@ -52359,26 +52363,26 @@
       <c r="H35" s="2">
         <v>4</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="24" t="s">
         <v>1400</v>
       </c>
-      <c r="J35" s="23" t="s">
-        <v>1478</v>
-      </c>
-      <c r="K35" s="23" t="s">
-        <v>1479</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M35" s="23" t="s">
-        <v>1481</v>
-      </c>
-      <c r="N35" s="25" t="s">
-        <v>1482</v>
+      <c r="J35" s="24" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>1470</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>1471</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>1472</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>1473</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>1483</v>
+        <v>1522</v>
       </c>
       <c r="P35" s="21" t="s">
         <v>1409</v>
@@ -52409,26 +52413,26 @@
       <c r="H36" s="2">
         <v>3</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="24" t="s">
         <v>1400</v>
       </c>
-      <c r="J36" s="23" t="s">
-        <v>1478</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>1484</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>1471</v>
-      </c>
-      <c r="M36" s="23" t="s">
-        <v>1485</v>
-      </c>
-      <c r="N36" s="25" t="s">
-        <v>1486</v>
+      <c r="J36" s="24" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>1464</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>1475</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>1476</v>
       </c>
       <c r="O36" s="26" t="s">
-        <v>1521</v>
+        <v>1502</v>
       </c>
       <c r="P36" s="21" t="s">
         <v>1410</v>
@@ -52459,26 +52463,26 @@
       <c r="H37" s="2">
         <v>3</v>
       </c>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="24" t="s">
         <v>1401</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="J37" s="24" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>1477</v>
+      </c>
+      <c r="L37" s="28" t="s">
         <v>1478</v>
       </c>
-      <c r="K37" s="23" t="s">
-        <v>1487</v>
-      </c>
-      <c r="L37" s="25" t="s">
-        <v>1488</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>1489</v>
-      </c>
-      <c r="N37" s="25" t="s">
-        <v>1490</v>
+      <c r="M37" s="24" t="s">
+        <v>1479</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>1480</v>
       </c>
       <c r="O37" s="26" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="P37" s="21" t="s">
         <v>1411</v>
@@ -52516,10 +52520,10 @@
         <v>1419</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="L38" s="27" t="s">
-        <v>1522</v>
+        <v>1503</v>
       </c>
       <c r="M38" s="26" t="s">
         <v>1523</v>
@@ -52559,13 +52563,13 @@
         <v>1423</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="L39" s="27" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="M39" s="26" t="s">
-        <v>1493</v>
+        <v>1524</v>
       </c>
       <c r="N39" s="25"/>
       <c r="O39" s="23"/>
@@ -52605,7 +52609,7 @@
         <v>1420</v>
       </c>
       <c r="L40" s="27" t="s">
-        <v>1524</v>
+        <v>1504</v>
       </c>
       <c r="M40" s="26" t="s">
         <v>1525</v>
@@ -52645,13 +52649,13 @@
         <v>1416</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
       <c r="L41" s="27" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
       <c r="N41" s="25"/>
       <c r="O41" s="23"/>

--- a/Excel文件/xiakeqian/战斗属性.xlsx
+++ b/Excel文件/xiakeqian/战斗属性.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet3!$A$1:$F$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$J$1:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$K$1:$L$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet5!$A$1:$AA$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3981" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="1527">
   <si>
     <t>#編號</t>
   </si>
@@ -4700,6 +4700,9 @@
   </si>
   <si>
     <t>每有一个回合未进行移动，下个回合攻击造成的伤害提高100%，最多累计2回合</t>
+  </si>
+  <si>
+    <t>强度梯队</t>
   </si>
 </sst>
 </file>
@@ -4815,7 +4818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4861,6 +4864,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -50885,20 +50893,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="M16" sqref="M16"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="13" max="13" width="91.375" customWidth="1"/>
-    <col min="15" max="15" width="66.625" customWidth="1"/>
+    <col min="9" max="9" width="9" style="23"/>
+    <col min="14" max="14" width="91.375" customWidth="1"/>
+    <col min="16" max="16" width="66.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="20" customFormat="1">
+    <row r="1" spans="1:18" s="20" customFormat="1">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -50920,35 +50929,38 @@
       <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="33" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>1412</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>1413</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>1414</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>1415</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>1414</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>1415</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>1407</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="20" customFormat="1">
+    <row r="2" spans="1:18" s="20" customFormat="1">
       <c r="A2" s="20" t="s">
         <v>23</v>
       </c>
@@ -50970,15 +50982,16 @@
       <c r="H2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="15">
         <v>100033</v>
       </c>
@@ -51003,25 +51016,28 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="31">
+        <v>3</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>1399</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="K3" s="26" t="s">
         <v>1416</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="L3" s="26" t="s">
         <v>1417</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="M3" s="27" t="s">
         <v>1418</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="N3" s="26" t="s">
         <v>1490</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="23"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="O3" s="25"/>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="15">
         <v>100060</v>
       </c>
@@ -51046,25 +51062,28 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="31">
+        <v>3</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>1400</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="K4" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="L4" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="M4" s="27" t="s">
         <v>1421</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="N4" s="26" t="s">
         <v>1422</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="23"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="O4" s="25"/>
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="15">
         <v>100078</v>
       </c>
@@ -51089,25 +51108,28 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="31">
+        <v>3</v>
+      </c>
+      <c r="J5" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="K5" s="26" t="s">
         <v>1423</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="L5" s="26" t="s">
         <v>1424</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="M5" s="27" t="s">
         <v>1425</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="N5" s="26" t="s">
         <v>1426</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="23"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="O5" s="25"/>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="15">
         <v>100082</v>
       </c>
@@ -51132,25 +51154,28 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="31">
+        <v>3</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>1399</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="K6" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="L6" s="26" t="s">
         <v>1427</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="M6" s="27" t="s">
         <v>1428</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="N6" s="26" t="s">
         <v>1491</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="23"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="O6" s="25"/>
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="15">
         <v>100091</v>
       </c>
@@ -51175,25 +51200,28 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="31">
+        <v>2</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="K7" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="L7" s="26" t="s">
         <v>1429</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="M7" s="27" t="s">
         <v>1430</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="N7" s="26" t="s">
         <v>1492</v>
       </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="23"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="O7" s="25"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="15">
         <v>100134</v>
       </c>
@@ -51218,25 +51246,28 @@
       <c r="H8">
         <v>3</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="31">
+        <v>1</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>1400</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="K8" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="L8" s="26" t="s">
         <v>1424</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="M8" s="27" t="s">
         <v>1431</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="N8" s="26" t="s">
         <v>1486</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="23"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="O8" s="25"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="15">
         <v>100135</v>
       </c>
@@ -51261,25 +51292,28 @@
       <c r="H9">
         <v>3</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="31">
+        <v>1</v>
+      </c>
+      <c r="J9" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="K9" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="L9" s="26" t="s">
         <v>1424</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="M9" s="27" t="s">
         <v>1432</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="N9" s="26" t="s">
         <v>1487</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="23"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="O9" s="25"/>
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="15">
         <v>100297</v>
       </c>
@@ -51304,25 +51338,28 @@
       <c r="H10">
         <v>2</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="31">
+        <v>2</v>
+      </c>
+      <c r="J10" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="K10" s="26" t="s">
         <v>1423</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="L10" s="26" t="s">
         <v>1429</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="M10" s="27" t="s">
         <v>1433</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="N10" s="26" t="s">
         <v>1434</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="23"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="O10" s="25"/>
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="2">
         <v>100021</v>
       </c>
@@ -51347,25 +51384,28 @@
       <c r="H11" s="2">
         <v>3</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="32">
+        <v>3</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="K11" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="L11" s="26" t="s">
         <v>1427</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="M11" s="27" t="s">
         <v>1505</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="N11" s="26" t="s">
         <v>1506</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="23"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="O11" s="25"/>
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="2">
         <v>100043</v>
       </c>
@@ -51390,25 +51430,28 @@
       <c r="H12" s="2">
         <v>3</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="32">
+        <v>2</v>
+      </c>
+      <c r="J12" s="26" t="s">
         <v>1403</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="K12" s="26" t="s">
         <v>1423</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="L12" s="26" t="s">
         <v>1424</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="M12" s="27" t="s">
         <v>1435</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="N12" s="26" t="s">
         <v>1436</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="23"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="O12" s="25"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>100054</v>
       </c>
@@ -51433,25 +51476,28 @@
       <c r="H13" s="2">
         <v>3</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="32">
+        <v>3</v>
+      </c>
+      <c r="J13" s="26" t="s">
         <v>1404</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="K13" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="L13" s="26" t="s">
         <v>1424</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="M13" s="27" t="s">
         <v>1493</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="N13" s="26" t="s">
         <v>1494</v>
       </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="23"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="O13" s="25"/>
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="2">
         <v>100056</v>
       </c>
@@ -51476,25 +51522,28 @@
       <c r="H14" s="2">
         <v>2</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="32">
+        <v>1</v>
+      </c>
+      <c r="J14" s="26" t="s">
         <v>1405</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="K14" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="L14" s="26" t="s">
         <v>1427</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="M14" s="27" t="s">
         <v>1495</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="N14" s="26" t="s">
         <v>1496</v>
       </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="23"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="O14" s="25"/>
+      <c r="P14" s="23"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="2">
         <v>100419</v>
       </c>
@@ -51519,25 +51568,28 @@
       <c r="H15" s="2">
         <v>2</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="32">
+        <v>3</v>
+      </c>
+      <c r="J15" s="26" t="s">
         <v>1400</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="K15" s="26" t="s">
         <v>1437</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="L15" s="26" t="s">
         <v>1438</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="M15" s="27" t="s">
         <v>1439</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="N15" s="26" t="s">
         <v>1440</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="23"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="O15" s="25"/>
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="2">
         <v>200000</v>
       </c>
@@ -51562,25 +51614,28 @@
       <c r="H16" s="2">
         <v>3</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="32">
+        <v>3</v>
+      </c>
+      <c r="J16" s="26" t="s">
         <v>1400</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="K16" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="L16" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="M16" s="27" t="s">
         <v>1497</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="N16" s="26" t="s">
         <v>1507</v>
       </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="23"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="25"/>
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="2">
         <v>200022</v>
       </c>
@@ -51605,24 +51660,27 @@
       <c r="H17" s="2">
         <v>2</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="32">
+        <v>3</v>
+      </c>
+      <c r="J17" s="26" t="s">
         <v>1404</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="K17" s="26" t="s">
         <v>1416</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="L17" s="26" t="s">
         <v>1441</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="M17" s="27" t="s">
         <v>1442</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="N17" s="26" t="s">
         <v>1508</v>
       </c>
-      <c r="N17" s="25"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="2">
         <v>200039</v>
       </c>
@@ -51647,24 +51705,27 @@
       <c r="H18" s="2">
         <v>3</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="32">
+        <v>3</v>
+      </c>
+      <c r="J18" s="26" t="s">
         <v>1399</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="K18" s="26" t="s">
         <v>1443</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="L18" s="26" t="s">
         <v>1444</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="M18" s="27" t="s">
         <v>1445</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="N18" s="26" t="s">
         <v>1446</v>
       </c>
-      <c r="N18" s="25"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="25"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2">
         <v>200044</v>
       </c>
@@ -51689,24 +51750,27 @@
       <c r="H19" s="2">
         <v>3</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="32">
+        <v>2</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>1406</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="K19" s="26" t="s">
         <v>1416</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="L19" s="26" t="s">
         <v>1447</v>
       </c>
-      <c r="L19" s="27" t="s">
+      <c r="M19" s="27" t="s">
         <v>1448</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="N19" s="26" t="s">
         <v>1498</v>
       </c>
-      <c r="N19" s="25"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="25"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="2">
         <v>210048</v>
       </c>
@@ -51731,24 +51795,27 @@
       <c r="H20" s="2">
         <v>2</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="32">
+        <v>3</v>
+      </c>
+      <c r="J20" s="26" t="s">
         <v>1405</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="K20" s="26" t="s">
         <v>1423</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="L20" s="26" t="s">
         <v>1449</v>
       </c>
-      <c r="L20" s="27" t="s">
+      <c r="M20" s="27" t="s">
         <v>1450</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="N20" s="26" t="s">
         <v>1451</v>
       </c>
-      <c r="N20" s="25"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="25"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="2">
         <v>800035</v>
       </c>
@@ -51773,24 +51840,27 @@
       <c r="H21" s="2">
         <v>3</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="32">
+        <v>3</v>
+      </c>
+      <c r="J21" s="26" t="s">
         <v>1399</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="K21" s="26" t="s">
         <v>1437</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="L21" s="26" t="s">
         <v>1452</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="M21" s="27" t="s">
         <v>1453</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>1499</v>
       </c>
-      <c r="N21" s="25"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="25"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="2">
         <v>800092</v>
       </c>
@@ -51815,24 +51885,27 @@
       <c r="H22" s="2">
         <v>4</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="32">
+        <v>1</v>
+      </c>
+      <c r="J22" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="K22" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="L22" s="26" t="s">
         <v>1424</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="M22" s="27" t="s">
         <v>1488</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="N22" s="29" t="s">
         <v>1509</v>
       </c>
-      <c r="N22" s="25"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="25"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="2">
         <v>878150</v>
       </c>
@@ -51857,24 +51930,27 @@
       <c r="H23" s="2">
         <v>3</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="32">
+        <v>2</v>
+      </c>
+      <c r="J23" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="K23" s="26" t="s">
         <v>1423</v>
       </c>
-      <c r="K23" s="26" t="s">
+      <c r="L23" s="26" t="s">
         <v>1454</v>
       </c>
-      <c r="L23" s="27" t="s">
+      <c r="M23" s="27" t="s">
         <v>1455</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="N23" s="26" t="s">
         <v>1510</v>
       </c>
-      <c r="N23" s="25"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="2">
         <v>878155</v>
       </c>
@@ -51899,24 +51975,27 @@
       <c r="H24" s="2">
         <v>4</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="32">
+        <v>1</v>
+      </c>
+      <c r="J24" s="26" t="s">
         <v>1489</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="K24" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="L24" s="26" t="s">
         <v>1456</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="M24" s="27" t="s">
         <v>1457</v>
       </c>
-      <c r="M24" s="26" t="s">
+      <c r="N24" s="26" t="s">
         <v>1511</v>
       </c>
-      <c r="N24" s="25"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="25"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="2">
         <v>878162</v>
       </c>
@@ -51941,24 +52020,27 @@
       <c r="H25" s="2">
         <v>3</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="32">
+        <v>3</v>
+      </c>
+      <c r="J25" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="K25" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="L25" s="26" t="s">
         <v>1458</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="M25" s="27" t="s">
         <v>1459</v>
       </c>
-      <c r="M25" s="26" t="s">
+      <c r="N25" s="26" t="s">
         <v>1512</v>
       </c>
-      <c r="N25" s="25"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="25"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="2">
         <v>878178</v>
       </c>
@@ -51983,24 +52065,27 @@
       <c r="H26" s="2">
         <v>3</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="32">
+        <v>3</v>
+      </c>
+      <c r="J26" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="K26" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="L26" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="L26" s="27" t="s">
+      <c r="M26" s="27" t="s">
         <v>1460</v>
       </c>
-      <c r="M26" s="26" t="s">
+      <c r="N26" s="26" t="s">
         <v>1513</v>
       </c>
-      <c r="N26" s="25"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="25"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="2">
         <v>878188</v>
       </c>
@@ -52025,24 +52110,27 @@
       <c r="H27" s="2">
         <v>3</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="32">
+        <v>3</v>
+      </c>
+      <c r="J27" s="26" t="s">
         <v>1489</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="K27" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="L27" s="26" t="s">
         <v>1427</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="M27" s="27" t="s">
         <v>1461</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="N27" s="26" t="s">
         <v>1514</v>
       </c>
-      <c r="N27" s="25"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="25"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="2">
         <v>878208</v>
       </c>
@@ -52067,24 +52155,27 @@
       <c r="H28" s="2">
         <v>3</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="32">
+        <v>2</v>
+      </c>
+      <c r="J28" s="26" t="s">
         <v>1403</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="K28" s="26" t="s">
         <v>1423</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="L28" s="26" t="s">
         <v>1454</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="M28" s="27" t="s">
         <v>1462</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="N28" s="26" t="s">
         <v>1515</v>
       </c>
-      <c r="N28" s="25"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="25"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="2">
         <v>878217</v>
       </c>
@@ -52109,24 +52200,27 @@
       <c r="H29" s="2">
         <v>3</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="32">
+        <v>1</v>
+      </c>
+      <c r="J29" s="26" t="s">
         <v>1400</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="K29" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K29" s="26" t="s">
+      <c r="L29" s="26" t="s">
         <v>1429</v>
       </c>
-      <c r="L29" s="27" t="s">
+      <c r="M29" s="27" t="s">
         <v>1463</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="N29" s="29" t="s">
         <v>1516</v>
       </c>
-      <c r="N29" s="25"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="25"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="2">
         <v>878224</v>
       </c>
@@ -52151,24 +52245,27 @@
       <c r="H30" s="2">
         <v>3</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="32">
+        <v>2</v>
+      </c>
+      <c r="J30" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="K30" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="L30" s="26" t="s">
         <v>1424</v>
       </c>
-      <c r="L30" s="30" t="s">
+      <c r="M30" s="30" t="s">
         <v>1517</v>
       </c>
-      <c r="M30" s="26" t="s">
+      <c r="N30" s="26" t="s">
         <v>1518</v>
       </c>
-      <c r="N30" s="25"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="25"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="2">
         <v>878226</v>
       </c>
@@ -52193,24 +52290,27 @@
       <c r="H31" s="2">
         <v>3</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="32">
+        <v>3</v>
+      </c>
+      <c r="J31" s="26" t="s">
         <v>1399</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="K31" s="26" t="s">
         <v>1443</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="L31" s="26" t="s">
         <v>1465</v>
       </c>
-      <c r="L31" s="27" t="s">
+      <c r="M31" s="27" t="s">
         <v>1501</v>
       </c>
-      <c r="M31" s="26" t="s">
+      <c r="N31" s="26" t="s">
         <v>1466</v>
       </c>
-      <c r="N31" s="25"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="25"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="2">
         <v>878228</v>
       </c>
@@ -52235,24 +52335,27 @@
       <c r="H32" s="2">
         <v>3</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="32">
+        <v>2</v>
+      </c>
+      <c r="J32" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="K32" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="L32" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="L32" s="27" t="s">
+      <c r="M32" s="27" t="s">
         <v>1519</v>
       </c>
-      <c r="M32" s="26" t="s">
+      <c r="N32" s="26" t="s">
         <v>1500</v>
       </c>
-      <c r="N32" s="25"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="O32" s="25"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="2">
         <v>878241</v>
       </c>
@@ -52277,25 +52380,28 @@
       <c r="H33" s="2">
         <v>3</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="32">
+        <v>1</v>
+      </c>
+      <c r="J33" s="26" t="s">
         <v>1400</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="K33" s="26" t="s">
         <v>1423</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="L33" s="26" t="s">
         <v>1454</v>
       </c>
-      <c r="L33" s="27" t="s">
+      <c r="M33" s="27" t="s">
         <v>1467</v>
       </c>
-      <c r="M33" s="26" t="s">
+      <c r="N33" s="26" t="s">
         <v>1520</v>
       </c>
-      <c r="N33" s="25"/>
-      <c r="O33" s="23"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="O33" s="25"/>
+      <c r="P33" s="23"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="2">
         <v>878242</v>
       </c>
@@ -52320,25 +52426,28 @@
       <c r="H34" s="2">
         <v>3</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="32">
+        <v>1</v>
+      </c>
+      <c r="J34" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="K34" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="L34" s="26" t="s">
         <v>1456</v>
       </c>
-      <c r="L34" s="27" t="s">
+      <c r="M34" s="27" t="s">
         <v>1468</v>
       </c>
-      <c r="M34" s="26" t="s">
+      <c r="N34" s="26" t="s">
         <v>1521</v>
       </c>
-      <c r="N34" s="25"/>
-      <c r="O34" s="23"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="O34" s="25"/>
+      <c r="P34" s="23"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="2">
         <v>878262</v>
       </c>
@@ -52363,32 +52472,35 @@
       <c r="H35" s="2">
         <v>4</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="32">
+        <v>1</v>
+      </c>
+      <c r="J35" s="24" t="s">
         <v>1400</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="K35" s="24" t="s">
         <v>1469</v>
       </c>
-      <c r="K35" s="24" t="s">
+      <c r="L35" s="24" t="s">
         <v>1470</v>
       </c>
-      <c r="L35" s="28" t="s">
+      <c r="M35" s="28" t="s">
         <v>1471</v>
       </c>
-      <c r="M35" s="24" t="s">
+      <c r="N35" s="24" t="s">
         <v>1472</v>
       </c>
-      <c r="N35" s="27" t="s">
+      <c r="O35" s="27" t="s">
         <v>1473</v>
       </c>
-      <c r="O35" s="26" t="s">
+      <c r="P35" s="26" t="s">
         <v>1522</v>
       </c>
-      <c r="P35" s="21" t="s">
+      <c r="Q35" s="21" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="A36" s="2">
         <v>878263</v>
       </c>
@@ -52413,32 +52525,35 @@
       <c r="H36" s="2">
         <v>3</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="32">
+        <v>1</v>
+      </c>
+      <c r="J36" s="24" t="s">
         <v>1400</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="K36" s="24" t="s">
         <v>1469</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="L36" s="24" t="s">
         <v>1474</v>
       </c>
-      <c r="L36" s="28" t="s">
+      <c r="M36" s="28" t="s">
         <v>1464</v>
       </c>
-      <c r="M36" s="24" t="s">
+      <c r="N36" s="24" t="s">
         <v>1475</v>
       </c>
-      <c r="N36" s="27" t="s">
+      <c r="O36" s="27" t="s">
         <v>1476</v>
       </c>
-      <c r="O36" s="26" t="s">
+      <c r="P36" s="26" t="s">
         <v>1502</v>
       </c>
-      <c r="P36" s="21" t="s">
+      <c r="Q36" s="21" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="A37" s="2">
         <v>878265</v>
       </c>
@@ -52463,32 +52578,35 @@
       <c r="H37" s="2">
         <v>3</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="32">
+        <v>1</v>
+      </c>
+      <c r="J37" s="24" t="s">
         <v>1401</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="K37" s="24" t="s">
         <v>1469</v>
       </c>
-      <c r="K37" s="24" t="s">
+      <c r="L37" s="24" t="s">
         <v>1477</v>
       </c>
-      <c r="L37" s="28" t="s">
+      <c r="M37" s="28" t="s">
         <v>1478</v>
       </c>
-      <c r="M37" s="24" t="s">
+      <c r="N37" s="24" t="s">
         <v>1479</v>
       </c>
-      <c r="N37" s="27" t="s">
+      <c r="O37" s="27" t="s">
         <v>1480</v>
       </c>
-      <c r="O37" s="26" t="s">
+      <c r="P37" s="26" t="s">
         <v>1481</v>
       </c>
-      <c r="P37" s="21" t="s">
+      <c r="Q37" s="21" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:17">
       <c r="A38" s="2">
         <v>878271</v>
       </c>
@@ -52513,25 +52631,28 @@
       <c r="H38" s="2">
         <v>3</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="I38" s="32">
+        <v>2</v>
+      </c>
+      <c r="J38" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="K38" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K38" s="26" t="s">
+      <c r="L38" s="26" t="s">
         <v>1458</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="M38" s="27" t="s">
         <v>1503</v>
       </c>
-      <c r="M38" s="26" t="s">
+      <c r="N38" s="26" t="s">
         <v>1523</v>
       </c>
-      <c r="N38" s="25"/>
-      <c r="O38" s="23"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="O38" s="25"/>
+      <c r="P38" s="23"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="2">
         <v>878273</v>
       </c>
@@ -52556,25 +52677,28 @@
       <c r="H39" s="2">
         <v>3</v>
       </c>
-      <c r="I39" s="26" t="s">
+      <c r="I39" s="32">
+        <v>1</v>
+      </c>
+      <c r="J39" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J39" s="26" t="s">
+      <c r="K39" s="26" t="s">
         <v>1423</v>
       </c>
-      <c r="K39" s="26" t="s">
+      <c r="L39" s="26" t="s">
         <v>1454</v>
       </c>
-      <c r="L39" s="27" t="s">
+      <c r="M39" s="27" t="s">
         <v>1482</v>
       </c>
-      <c r="M39" s="26" t="s">
+      <c r="N39" s="26" t="s">
         <v>1524</v>
       </c>
-      <c r="N39" s="25"/>
-      <c r="O39" s="23"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="O39" s="25"/>
+      <c r="P39" s="23"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="2">
         <v>878274</v>
       </c>
@@ -52599,25 +52723,28 @@
       <c r="H40" s="2">
         <v>3</v>
       </c>
-      <c r="I40" s="26" t="s">
+      <c r="I40" s="32">
+        <v>2</v>
+      </c>
+      <c r="J40" s="26" t="s">
         <v>1401</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="K40" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="K40" s="26" t="s">
+      <c r="L40" s="26" t="s">
         <v>1420</v>
       </c>
-      <c r="L40" s="27" t="s">
+      <c r="M40" s="27" t="s">
         <v>1504</v>
       </c>
-      <c r="M40" s="26" t="s">
+      <c r="N40" s="26" t="s">
         <v>1525</v>
       </c>
-      <c r="N40" s="25"/>
-      <c r="O40" s="23"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="O40" s="25"/>
+      <c r="P40" s="23"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="2">
         <v>878275</v>
       </c>
@@ -52642,25 +52769,28 @@
       <c r="H41" s="2">
         <v>3</v>
       </c>
-      <c r="I41" s="26" t="s">
+      <c r="I41" s="32">
+        <v>2</v>
+      </c>
+      <c r="J41" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="J41" s="26" t="s">
+      <c r="K41" s="26" t="s">
         <v>1416</v>
       </c>
-      <c r="K41" s="26" t="s">
+      <c r="L41" s="26" t="s">
         <v>1483</v>
       </c>
-      <c r="L41" s="27" t="s">
+      <c r="M41" s="27" t="s">
         <v>1484</v>
       </c>
-      <c r="M41" s="26" t="s">
+      <c r="N41" s="26" t="s">
         <v>1485</v>
       </c>
-      <c r="N41" s="25"/>
-      <c r="O41" s="23"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="O41" s="25"/>
+      <c r="P41" s="23"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="15">
         <v>878281</v>
       </c>
@@ -52685,11 +52815,12 @@
       <c r="H42" s="15">
         <v>3</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="24"/>
+      <c r="J42" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:17">
       <c r="A43" s="3">
         <v>878008</v>
       </c>
@@ -52714,8 +52845,9 @@
       <c r="H43" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="3">
         <v>878013</v>
       </c>
@@ -52740,8 +52872,9 @@
       <c r="H44" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="3">
         <v>878009</v>
       </c>
@@ -52766,8 +52899,9 @@
       <c r="H45" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="3">
         <v>878019</v>
       </c>
@@ -52792,8 +52926,9 @@
       <c r="H46" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="3">
         <v>878094</v>
       </c>
@@ -52818,11 +52953,12 @@
       <c r="H47" s="3">
         <v>3</v>
       </c>
-      <c r="J47" s="4"/>
+      <c r="I47" s="3"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="3">
         <v>878015</v>
       </c>
@@ -52847,8 +52983,9 @@
       <c r="H48" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>878218</v>
       </c>
@@ -52873,8 +53010,9 @@
       <c r="H49" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="3">
         <v>878014</v>
       </c>
@@ -52899,11 +53037,12 @@
       <c r="H50" s="3">
         <v>3</v>
       </c>
-      <c r="J50" s="4"/>
+      <c r="I50" s="3"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="3">
         <v>878052</v>
       </c>
@@ -52928,11 +53067,12 @@
       <c r="H51" s="3">
         <v>3</v>
       </c>
-      <c r="J51" s="4"/>
+      <c r="I51" s="3"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="3">
         <v>878021</v>
       </c>
@@ -52957,11 +53097,12 @@
       <c r="H52" s="3">
         <v>3</v>
       </c>
-      <c r="J52" s="4"/>
+      <c r="I52" s="3"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>878023</v>
       </c>
@@ -52986,11 +53127,12 @@
       <c r="H53" s="3">
         <v>3</v>
       </c>
-      <c r="J53" s="4"/>
+      <c r="I53" s="3"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="3">
         <v>878024</v>
       </c>
@@ -53015,11 +53157,12 @@
       <c r="H54" s="3">
         <v>4</v>
       </c>
-      <c r="J54" s="4"/>
+      <c r="I54" s="3"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="3">
         <v>878033</v>
       </c>
@@ -53044,11 +53187,12 @@
       <c r="H55" s="3">
         <v>3</v>
       </c>
-      <c r="J55" s="4"/>
+      <c r="I55" s="3"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="3">
         <v>878219</v>
       </c>
@@ -53073,11 +53217,12 @@
       <c r="H56" s="3">
         <v>3</v>
       </c>
-      <c r="J56" s="4"/>
+      <c r="I56" s="3"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>878049</v>
       </c>
@@ -53102,11 +53247,12 @@
       <c r="H57" s="3">
         <v>3</v>
       </c>
-      <c r="J57" s="4"/>
+      <c r="I57" s="3"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="3">
         <v>878093</v>
       </c>
@@ -53131,11 +53277,12 @@
       <c r="H58" s="3">
         <v>2</v>
       </c>
-      <c r="J58" s="4"/>
+      <c r="I58" s="3"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>879012</v>
       </c>
@@ -53160,11 +53307,12 @@
       <c r="H59" s="3">
         <v>3</v>
       </c>
-      <c r="J59" s="4"/>
+      <c r="I59" s="3"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="3">
         <v>879014</v>
       </c>
@@ -53189,11 +53337,12 @@
       <c r="H60" s="3">
         <v>3</v>
       </c>
-      <c r="J60" s="4"/>
+      <c r="I60" s="3"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="3">
         <v>879010</v>
       </c>
@@ -53218,11 +53367,12 @@
       <c r="H61" s="3">
         <v>3</v>
       </c>
-      <c r="J61" s="4"/>
+      <c r="I61" s="3"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>878190</v>
       </c>
@@ -53247,11 +53397,12 @@
       <c r="H62" s="3">
         <v>3</v>
       </c>
-      <c r="J62" s="4"/>
+      <c r="I62" s="3"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="3">
         <v>878182</v>
       </c>
@@ -53276,11 +53427,12 @@
       <c r="H63" s="3">
         <v>3</v>
       </c>
-      <c r="J63" s="4"/>
+      <c r="I63" s="3"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="3">
         <v>878303</v>
       </c>
@@ -53305,11 +53457,12 @@
       <c r="H64" s="3">
         <v>2</v>
       </c>
-      <c r="J64" s="4"/>
+      <c r="I64" s="3"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="3">
         <v>878304</v>
       </c>
@@ -53334,11 +53487,12 @@
       <c r="H65" s="3">
         <v>2</v>
       </c>
-      <c r="J65" s="4"/>
+      <c r="I65" s="3"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="3">
         <v>878016</v>
       </c>
@@ -53363,11 +53517,12 @@
       <c r="H66" s="3">
         <v>2</v>
       </c>
-      <c r="J66" s="4"/>
+      <c r="I66" s="3"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="3">
         <v>878017</v>
       </c>
@@ -53392,11 +53547,12 @@
       <c r="H67" s="3">
         <v>3</v>
       </c>
-      <c r="J67" s="4"/>
+      <c r="I67" s="3"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="3">
         <v>878063</v>
       </c>
@@ -53421,11 +53577,12 @@
       <c r="H68" s="3">
         <v>3</v>
       </c>
-      <c r="J68" s="4"/>
+      <c r="I68" s="3"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="3">
         <v>878035</v>
       </c>
@@ -53450,11 +53607,12 @@
       <c r="H69" s="3">
         <v>4</v>
       </c>
-      <c r="J69" s="4"/>
+      <c r="I69" s="3"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="3">
         <v>878045</v>
       </c>
@@ -53479,11 +53637,12 @@
       <c r="H70" s="3">
         <v>3</v>
       </c>
-      <c r="J70" s="4"/>
+      <c r="I70" s="3"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="3">
         <v>878037</v>
       </c>
@@ -53508,11 +53667,12 @@
       <c r="H71" s="3">
         <v>5</v>
       </c>
-      <c r="J71" s="4"/>
+      <c r="I71" s="3"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="3">
         <v>878138</v>
       </c>
@@ -53537,11 +53697,12 @@
       <c r="H72" s="3">
         <v>3</v>
       </c>
-      <c r="J72" s="4"/>
+      <c r="I72" s="3"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="3">
         <v>878133</v>
       </c>
@@ -53566,11 +53727,12 @@
       <c r="H73" s="3">
         <v>4</v>
       </c>
-      <c r="J73" s="4"/>
+      <c r="I73" s="3"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="3">
         <v>878234</v>
       </c>
@@ -53595,11 +53757,12 @@
       <c r="H74" s="3">
         <v>3</v>
       </c>
-      <c r="J74" s="4"/>
+      <c r="I74" s="3"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="3">
         <v>878285</v>
       </c>
@@ -53624,11 +53787,12 @@
       <c r="H75" s="3">
         <v>3</v>
       </c>
-      <c r="J75" s="4"/>
+      <c r="I75" s="3"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="3">
         <v>878081</v>
       </c>
@@ -53653,11 +53817,12 @@
       <c r="H76" s="3">
         <v>3</v>
       </c>
-      <c r="J76" s="4"/>
+      <c r="I76" s="3"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="3">
         <v>878323</v>
       </c>
@@ -53682,11 +53847,12 @@
       <c r="H77" s="3">
         <v>3</v>
       </c>
-      <c r="J77" s="4"/>
+      <c r="I77" s="3"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="3">
         <v>878132</v>
       </c>
@@ -53711,11 +53877,12 @@
       <c r="H78" s="3">
         <v>3</v>
       </c>
-      <c r="J78" s="4"/>
+      <c r="I78" s="3"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="3">
         <v>878136</v>
       </c>
@@ -53740,11 +53907,12 @@
       <c r="H79" s="3">
         <v>3</v>
       </c>
-      <c r="J79" s="4"/>
+      <c r="I79" s="3"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="3">
         <v>878135</v>
       </c>
@@ -53769,11 +53937,12 @@
       <c r="H80" s="3">
         <v>3</v>
       </c>
-      <c r="J80" s="4"/>
+      <c r="I80" s="3"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="3">
         <v>878268</v>
       </c>
@@ -53798,11 +53967,12 @@
       <c r="H81" s="3">
         <v>3</v>
       </c>
-      <c r="J81" s="4"/>
+      <c r="I81" s="3"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="3">
         <v>878082</v>
       </c>
@@ -53827,11 +53997,12 @@
       <c r="H82" s="3">
         <v>3</v>
       </c>
-      <c r="J82" s="4"/>
+      <c r="I82" s="3"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="3">
         <v>878276</v>
       </c>
@@ -53856,11 +54027,12 @@
       <c r="H83" s="3">
         <v>3</v>
       </c>
-      <c r="J83" s="4"/>
+      <c r="I83" s="3"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="3">
         <v>878083</v>
       </c>
@@ -53885,11 +54057,12 @@
       <c r="H84" s="3">
         <v>3</v>
       </c>
-      <c r="J84" s="4"/>
+      <c r="I84" s="3"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="3">
         <v>878376</v>
       </c>
@@ -53914,11 +54087,12 @@
       <c r="H85" s="3">
         <v>5</v>
       </c>
-      <c r="J85" s="4"/>
+      <c r="I85" s="3"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="3">
         <v>878258</v>
       </c>
@@ -53943,11 +54117,12 @@
       <c r="H86" s="3">
         <v>3</v>
       </c>
-      <c r="J86" s="4"/>
+      <c r="I86" s="3"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="3">
         <v>878257</v>
       </c>
@@ -53972,11 +54147,12 @@
       <c r="H87" s="3">
         <v>3</v>
       </c>
-      <c r="J87" s="4"/>
+      <c r="I87" s="3"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="3">
         <v>878043</v>
       </c>
@@ -54001,11 +54177,12 @@
       <c r="H88" s="3">
         <v>3</v>
       </c>
-      <c r="J88" s="4"/>
+      <c r="I88" s="3"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="3">
         <v>878259</v>
       </c>
@@ -54030,11 +54207,12 @@
       <c r="H89" s="3">
         <v>3</v>
       </c>
-      <c r="J89" s="4"/>
+      <c r="I89" s="3"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="3">
         <v>878039</v>
       </c>
@@ -54059,11 +54237,12 @@
       <c r="H90" s="3">
         <v>3</v>
       </c>
-      <c r="J90" s="4"/>
+      <c r="I90" s="3"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90" s="4"/>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="3">
         <v>878154</v>
       </c>
@@ -54088,11 +54267,12 @@
       <c r="H91" s="3">
         <v>3</v>
       </c>
-      <c r="J91" s="4"/>
+      <c r="I91" s="3"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91" s="4"/>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="3">
         <v>878038</v>
       </c>
@@ -54117,15 +54297,16 @@
       <c r="H92" s="3">
         <v>3</v>
       </c>
-      <c r="J92" s="4"/>
+      <c r="I92" s="3"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="J1:K41"/>
+  <autoFilter ref="K1:L41"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B11:B14">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -55103,7 +55284,7 @@
   <autoFilter ref="A1:F42"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B11:B14">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
